--- a/data/case1/18/P2_3.xlsx
+++ b/data/case1/18/P2_3.xlsx
@@ -61,167 +61,167 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>0.41571935251523939</v>
+        <v>0.4092363652084714</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>-0.0099999997948820862</v>
+        <v>-0.00999999930138884</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>-0.0089999997910439333</v>
+        <v>-0.087810384582763135</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>-0.011999999940552897</v>
+        <v>-0.011999999815550666</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>-0.0059999997938957605</v>
+        <v>-0.0059999992885888531</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>-0.0059999997872139943</v>
+        <v>-0.0059999992683970049</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>-0.019999999745689223</v>
+        <v>-0.019999999147930936</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>-0.019999999743847141</v>
+        <v>-0.019999999144624248</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>-0.0059999997830493257</v>
+        <v>-0.005999999261522504</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>-0.0059999997817214989</v>
+        <v>-0.0059999992603323449</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>-0.0044999997862582575</v>
+        <v>-0.0044999992731433736</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>-0.0059999997816335693</v>
+        <v>-0.0059999992605739294</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>-0.005999999780945231</v>
+        <v>-0.0059999992624657494</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>-0.011999999763367519</v>
+        <v>0.0072298850662484426</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>-0.0059999997811086558</v>
+        <v>0.025969758352838213</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.02837941888158424</v>
+        <v>-0.0059999992620407561</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>-0.0059999997806521321</v>
+        <v>-0.005999999259337585</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>-0.0089999997716221358</v>
+        <v>-0.0089999992333220646</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>-0.094496731273640666</v>
+        <v>-0.0089999993094300734</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>-0.0089999997950851451</v>
+        <v>-0.0089999993032963133</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>-0.00899999979477073</v>
+        <v>-0.008999999302379269</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>-0.0089999997945211518</v>
+        <v>-0.0089999993018241575</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>-0.0089999997890322092</v>
+        <v>-0.0089999992751019775</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>-0.041999999689320333</v>
+        <v>-0.041999998983234477</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>-0.041999999687546641</v>
+        <v>-0.041999998977789943</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>-0.0059999997865638477</v>
+        <v>-0.0059999992666064372</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.0095319200814172333</v>
+        <v>-0.0059999992638486432</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>-0.0059999997812081318</v>
+        <v>-0.005999999249814536</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>-0.011999999760616831</v>
+        <v>-0.011999999189470145</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>-0.019999999735640817</v>
+        <v>-0.01944568505171107</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>-0.014999999748146919</v>
+        <v>-0.014999999152339072</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>-0.020999999730243246</v>
+        <v>-0.020999999100417277</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>-0.0048896621382823469</v>
+        <v>-0.0059999992277575132</v>
       </c>
     </row>
   </sheetData>
